--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Bgn-Tlr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Tlr4</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>153.074322579268</v>
+        <v>174.7894516666667</v>
       </c>
       <c r="H2">
-        <v>153.074322579268</v>
+        <v>524.368355</v>
       </c>
       <c r="I2">
-        <v>0.038922757030298</v>
+        <v>0.04413101306928495</v>
       </c>
       <c r="J2">
-        <v>0.038922757030298</v>
+        <v>0.04413101306928494</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.820189278529231</v>
+        <v>9.115710333333334</v>
       </c>
       <c r="N2">
-        <v>8.820189278529231</v>
+        <v>27.347131</v>
       </c>
       <c r="O2">
-        <v>0.1086040487373799</v>
+        <v>0.1106357638930427</v>
       </c>
       <c r="P2">
-        <v>0.1086040487373799</v>
+        <v>0.1106357638930427</v>
       </c>
       <c r="Q2">
-        <v>1350.144498831785</v>
+        <v>1593.330010715501</v>
       </c>
       <c r="R2">
-        <v>1350.144498831785</v>
+        <v>14339.9700964395</v>
       </c>
       <c r="S2">
-        <v>0.004227169001511678</v>
+        <v>0.00488246834229419</v>
       </c>
       <c r="T2">
-        <v>0.004227169001511678</v>
+        <v>0.004882468342294189</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>153.074322579268</v>
+        <v>174.7894516666667</v>
       </c>
       <c r="H3">
-        <v>153.074322579268</v>
+        <v>524.368355</v>
       </c>
       <c r="I3">
-        <v>0.038922757030298</v>
+        <v>0.04413101306928495</v>
       </c>
       <c r="J3">
-        <v>0.038922757030298</v>
+        <v>0.04413101306928494</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.957474287986891</v>
+        <v>9.004096000000001</v>
       </c>
       <c r="N3">
-        <v>8.957474287986891</v>
+        <v>27.012288</v>
       </c>
       <c r="O3">
-        <v>0.1102944555288016</v>
+        <v>0.1092811204721574</v>
       </c>
       <c r="P3">
-        <v>0.1102944555288016</v>
+        <v>0.1092811204721574</v>
       </c>
       <c r="Q3">
-        <v>1371.159308654804</v>
+        <v>1573.821002594027</v>
       </c>
       <c r="R3">
-        <v>1371.159308654804</v>
+        <v>14164.38902334624</v>
       </c>
       <c r="S3">
-        <v>0.004292964294336553</v>
+        <v>0.00482268655578288</v>
       </c>
       <c r="T3">
-        <v>0.004292964294336553</v>
+        <v>0.004822686555782879</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>153.074322579268</v>
+        <v>174.7894516666667</v>
       </c>
       <c r="H4">
-        <v>153.074322579268</v>
+        <v>524.368355</v>
       </c>
       <c r="I4">
-        <v>0.038922757030298</v>
+        <v>0.04413101306928495</v>
       </c>
       <c r="J4">
-        <v>0.038922757030298</v>
+        <v>0.04413101306928494</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.5721116910725</v>
+        <v>31.76332533333333</v>
       </c>
       <c r="N4">
-        <v>31.5721116910725</v>
+        <v>95.289976</v>
       </c>
       <c r="O4">
-        <v>0.3887511989324339</v>
+        <v>0.3855058611490069</v>
       </c>
       <c r="P4">
-        <v>0.3887511989324339</v>
+        <v>0.3855058611490069</v>
       </c>
       <c r="Q4">
-        <v>4832.879609507911</v>
+        <v>5551.894218123274</v>
       </c>
       <c r="R4">
-        <v>4832.879609507911</v>
+        <v>49967.04796310947</v>
       </c>
       <c r="S4">
-        <v>0.01513126846128417</v>
+        <v>0.01701276419665277</v>
       </c>
       <c r="T4">
-        <v>0.01513126846128417</v>
+        <v>0.01701276419665277</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>153.074322579268</v>
+        <v>174.7894516666667</v>
       </c>
       <c r="H5">
-        <v>153.074322579268</v>
+        <v>524.368355</v>
       </c>
       <c r="I5">
-        <v>0.038922757030298</v>
+        <v>0.04413101306928495</v>
       </c>
       <c r="J5">
-        <v>0.038922757030298</v>
+        <v>0.04413101306928494</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.73201046725</v>
+        <v>30.12843966666667</v>
       </c>
       <c r="N5">
-        <v>29.73201046725</v>
+        <v>90.385319</v>
       </c>
       <c r="O5">
-        <v>0.3660938118080779</v>
+        <v>0.3656635429976674</v>
       </c>
       <c r="P5">
-        <v>0.3660938118080779</v>
+        <v>0.3656635429976673</v>
       </c>
       <c r="Q5">
-        <v>4551.207361194</v>
+        <v>5266.133448908915</v>
       </c>
       <c r="R5">
-        <v>4551.207361194</v>
+        <v>47395.20104018024</v>
       </c>
       <c r="S5">
-        <v>0.01424938048730146</v>
+        <v>0.0161371025949911</v>
       </c>
       <c r="T5">
-        <v>0.01424938048730146</v>
+        <v>0.01613710259499109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>153.074322579268</v>
+        <v>174.7894516666667</v>
       </c>
       <c r="H6">
-        <v>153.074322579268</v>
+        <v>524.368355</v>
       </c>
       <c r="I6">
-        <v>0.038922757030298</v>
+        <v>0.04413101306928495</v>
       </c>
       <c r="J6">
-        <v>0.038922757030298</v>
+        <v>0.04413101306928494</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.13239902307729</v>
+        <v>2.382313</v>
       </c>
       <c r="N6">
-        <v>2.13239902307729</v>
+        <v>7.146939</v>
       </c>
       <c r="O6">
-        <v>0.02625648499330667</v>
+        <v>0.0289137114881257</v>
       </c>
       <c r="P6">
-        <v>0.02625648499330667</v>
+        <v>0.02891371148812569</v>
       </c>
       <c r="Q6">
-        <v>326.415535926249</v>
+        <v>416.4031829683716</v>
       </c>
       <c r="R6">
-        <v>326.415535926249</v>
+        <v>3747.628646715345</v>
       </c>
       <c r="S6">
-        <v>0.001021974785864141</v>
+        <v>0.00127599137956401</v>
       </c>
       <c r="T6">
-        <v>0.001021974785864141</v>
+        <v>0.001275991379564009</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3719.1719254945</v>
+        <v>3721.989909</v>
       </c>
       <c r="H7">
-        <v>3719.1719254945</v>
+        <v>11165.969727</v>
       </c>
       <c r="I7">
-        <v>0.9456871849618361</v>
+        <v>0.9397316814693693</v>
       </c>
       <c r="J7">
-        <v>0.9456871849618361</v>
+        <v>0.9397316814693691</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.820189278529231</v>
+        <v>9.115710333333334</v>
       </c>
       <c r="N7">
-        <v>8.820189278529231</v>
+        <v>27.347131</v>
       </c>
       <c r="O7">
-        <v>0.1086040487373799</v>
+        <v>0.1106357638930427</v>
       </c>
       <c r="P7">
-        <v>0.1086040487373799</v>
+        <v>0.1106357638930427</v>
       </c>
       <c r="Q7">
-        <v>32803.8003422535</v>
+        <v>33928.5818740337</v>
       </c>
       <c r="R7">
-        <v>32803.8003422535</v>
+        <v>305357.2368663033</v>
       </c>
       <c r="S7">
-        <v>0.1027054571259108</v>
+        <v>0.1039679324338571</v>
       </c>
       <c r="T7">
-        <v>0.1027054571259108</v>
+        <v>0.1039679324338571</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3719.1719254945</v>
+        <v>3721.989909</v>
       </c>
       <c r="H8">
-        <v>3719.1719254945</v>
+        <v>11165.969727</v>
       </c>
       <c r="I8">
-        <v>0.9456871849618361</v>
+        <v>0.9397316814693693</v>
       </c>
       <c r="J8">
-        <v>0.9456871849618361</v>
+        <v>0.9397316814693691</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.957474287986891</v>
+        <v>9.004096000000001</v>
       </c>
       <c r="N8">
-        <v>8.957474287986891</v>
+        <v>27.012288</v>
       </c>
       <c r="O8">
-        <v>0.1102944555288016</v>
+        <v>0.1092811204721574</v>
       </c>
       <c r="P8">
-        <v>0.1102944555288016</v>
+        <v>0.1092811204721574</v>
       </c>
       <c r="Q8">
-        <v>33314.38689521968</v>
+        <v>33513.15445166727</v>
       </c>
       <c r="R8">
-        <v>33314.38689521968</v>
+        <v>301618.3900650054</v>
       </c>
       <c r="S8">
-        <v>0.1043040531659308</v>
+        <v>0.1026949310941572</v>
       </c>
       <c r="T8">
-        <v>0.1043040531659308</v>
+        <v>0.1026949310941572</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3719.1719254945</v>
+        <v>3721.989909</v>
       </c>
       <c r="H9">
-        <v>3719.1719254945</v>
+        <v>11165.969727</v>
       </c>
       <c r="I9">
-        <v>0.9456871849618361</v>
+        <v>0.9397316814693693</v>
       </c>
       <c r="J9">
-        <v>0.9456871849618361</v>
+        <v>0.9397316814693691</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.5721116910725</v>
+        <v>31.76332533333333</v>
       </c>
       <c r="N9">
-        <v>31.5721116910725</v>
+        <v>95.289976</v>
       </c>
       <c r="O9">
-        <v>0.3887511989324339</v>
+        <v>0.3855058611490069</v>
       </c>
       <c r="P9">
-        <v>0.3887511989324339</v>
+        <v>0.3855058611490069</v>
       </c>
       <c r="Q9">
-        <v>117422.1114300135</v>
+        <v>118222.7763669507</v>
       </c>
       <c r="R9">
-        <v>117422.1114300135</v>
+        <v>1064004.987302556</v>
       </c>
       <c r="S9">
-        <v>0.3676370269689522</v>
+        <v>0.3622720711138534</v>
       </c>
       <c r="T9">
-        <v>0.3676370269689522</v>
+        <v>0.3622720711138533</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3719.1719254945</v>
+        <v>3721.989909</v>
       </c>
       <c r="H10">
-        <v>3719.1719254945</v>
+        <v>11165.969727</v>
       </c>
       <c r="I10">
-        <v>0.9456871849618361</v>
+        <v>0.9397316814693693</v>
       </c>
       <c r="J10">
-        <v>0.9456871849618361</v>
+        <v>0.9397316814693691</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>29.73201046725</v>
+        <v>30.12843966666667</v>
       </c>
       <c r="N10">
-        <v>29.73201046725</v>
+        <v>90.385319</v>
       </c>
       <c r="O10">
-        <v>0.3660938118080779</v>
+        <v>0.3656635429976674</v>
       </c>
       <c r="P10">
-        <v>0.3660938118080779</v>
+        <v>0.3656635429976673</v>
       </c>
       <c r="Q10">
-        <v>110578.4586183048</v>
+        <v>112137.7484132486</v>
       </c>
       <c r="R10">
-        <v>110578.4586183048</v>
+        <v>1009239.735719238</v>
       </c>
       <c r="S10">
-        <v>0.3462102263207294</v>
+        <v>0.343625616113245</v>
       </c>
       <c r="T10">
-        <v>0.3462102263207294</v>
+        <v>0.3436256161132449</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3719.1719254945</v>
+        <v>3721.989909</v>
       </c>
       <c r="H11">
-        <v>3719.1719254945</v>
+        <v>11165.969727</v>
       </c>
       <c r="I11">
-        <v>0.9456871849618361</v>
+        <v>0.9397316814693693</v>
       </c>
       <c r="J11">
-        <v>0.9456871849618361</v>
+        <v>0.9397316814693691</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.13239902307729</v>
+        <v>2.382313</v>
       </c>
       <c r="N11">
-        <v>2.13239902307729</v>
+        <v>7.146939</v>
       </c>
       <c r="O11">
-        <v>0.02625648499330667</v>
+        <v>0.0289137114881257</v>
       </c>
       <c r="P11">
-        <v>0.02625648499330667</v>
+        <v>0.02891371148812569</v>
       </c>
       <c r="Q11">
-        <v>7930.758580580955</v>
+        <v>8866.944946079517</v>
       </c>
       <c r="R11">
-        <v>7930.758580580955</v>
+        <v>79802.50451471565</v>
       </c>
       <c r="S11">
-        <v>0.02483042138031288</v>
+        <v>0.02717113071425658</v>
       </c>
       <c r="T11">
-        <v>0.02483042138031288</v>
+        <v>0.02717113071425658</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8358179266180989</v>
+        <v>0.837161</v>
       </c>
       <c r="H12">
-        <v>0.8358179266180989</v>
+        <v>2.511483</v>
       </c>
       <c r="I12">
-        <v>0.0002125264220096559</v>
+        <v>0.0002113672345774699</v>
       </c>
       <c r="J12">
-        <v>0.0002125264220096559</v>
+        <v>0.0002113672345774698</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.820189278529231</v>
+        <v>9.115710333333334</v>
       </c>
       <c r="N12">
-        <v>8.820189278529231</v>
+        <v>27.347131</v>
       </c>
       <c r="O12">
-        <v>0.1086040487373799</v>
+        <v>0.1106357638930427</v>
       </c>
       <c r="P12">
-        <v>0.1086040487373799</v>
+        <v>0.1106357638930427</v>
       </c>
       <c r="Q12">
-        <v>7.372072315159488</v>
+        <v>7.631317178363668</v>
       </c>
       <c r="R12">
-        <v>7.372072315159488</v>
+        <v>68.681854605273</v>
       </c>
       <c r="S12">
-        <v>2.308122989391762E-05</v>
+        <v>2.338477545943832E-05</v>
       </c>
       <c r="T12">
-        <v>2.308122989391762E-05</v>
+        <v>2.338477545943832E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8358179266180989</v>
+        <v>0.837161</v>
       </c>
       <c r="H13">
-        <v>0.8358179266180989</v>
+        <v>2.511483</v>
       </c>
       <c r="I13">
-        <v>0.0002125264220096559</v>
+        <v>0.0002113672345774699</v>
       </c>
       <c r="J13">
-        <v>0.0002125264220096559</v>
+        <v>0.0002113672345774698</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.957474287986891</v>
+        <v>9.004096000000001</v>
       </c>
       <c r="N13">
-        <v>8.957474287986891</v>
+        <v>27.012288</v>
       </c>
       <c r="O13">
-        <v>0.1102944555288016</v>
+        <v>0.1092811204721574</v>
       </c>
       <c r="P13">
-        <v>0.1102944555288016</v>
+        <v>0.1092811204721574</v>
       </c>
       <c r="Q13">
-        <v>7.486817587120135</v>
+        <v>7.537878011456001</v>
       </c>
       <c r="R13">
-        <v>7.486817587120135</v>
+        <v>67.84090210310401</v>
       </c>
       <c r="S13">
-        <v>2.344048600103931E-05</v>
+        <v>2.309844822572723E-05</v>
       </c>
       <c r="T13">
-        <v>2.344048600103931E-05</v>
+        <v>2.309844822572723E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8358179266180989</v>
+        <v>0.837161</v>
       </c>
       <c r="H14">
-        <v>0.8358179266180989</v>
+        <v>2.511483</v>
       </c>
       <c r="I14">
-        <v>0.0002125264220096559</v>
+        <v>0.0002113672345774699</v>
       </c>
       <c r="J14">
-        <v>0.0002125264220096559</v>
+        <v>0.0002113672345774698</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.5721116910725</v>
+        <v>31.76332533333333</v>
       </c>
       <c r="N14">
-        <v>31.5721116910725</v>
+        <v>95.289976</v>
       </c>
       <c r="O14">
-        <v>0.3887511989324339</v>
+        <v>0.3855058611490069</v>
       </c>
       <c r="P14">
-        <v>0.3887511989324339</v>
+        <v>0.3855058611490069</v>
       </c>
       <c r="Q14">
-        <v>26.38853693258726</v>
+        <v>26.59101719937867</v>
       </c>
       <c r="R14">
-        <v>26.38853693258726</v>
+        <v>239.319154794408</v>
       </c>
       <c r="S14">
-        <v>8.261990136107413E-05</v>
+        <v>8.148330778447166E-05</v>
       </c>
       <c r="T14">
-        <v>8.261990136107413E-05</v>
+        <v>8.148330778447165E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8358179266180989</v>
+        <v>0.837161</v>
       </c>
       <c r="H15">
-        <v>0.8358179266180989</v>
+        <v>2.511483</v>
       </c>
       <c r="I15">
-        <v>0.0002125264220096559</v>
+        <v>0.0002113672345774699</v>
       </c>
       <c r="J15">
-        <v>0.0002125264220096559</v>
+        <v>0.0002113672345774698</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>29.73201046725</v>
+        <v>30.12843966666667</v>
       </c>
       <c r="N15">
-        <v>29.73201046725</v>
+        <v>90.385319</v>
       </c>
       <c r="O15">
-        <v>0.3660938118080779</v>
+        <v>0.3656635429976674</v>
       </c>
       <c r="P15">
-        <v>0.3660938118080779</v>
+        <v>0.3656635429976673</v>
       </c>
       <c r="Q15">
-        <v>24.85054734292451</v>
+        <v>25.22235467978633</v>
       </c>
       <c r="R15">
-        <v>24.85054734292451</v>
+        <v>227.001192118077</v>
       </c>
       <c r="S15">
-        <v>7.780460794344711E-05</v>
+        <v>7.72892918692167E-05</v>
       </c>
       <c r="T15">
-        <v>7.780460794344711E-05</v>
+        <v>7.728929186921667E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8358179266180989</v>
+        <v>0.837161</v>
       </c>
       <c r="H16">
-        <v>0.8358179266180989</v>
+        <v>2.511483</v>
       </c>
       <c r="I16">
-        <v>0.0002125264220096559</v>
+        <v>0.0002113672345774699</v>
       </c>
       <c r="J16">
-        <v>0.0002125264220096559</v>
+        <v>0.0002113672345774698</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.13239902307729</v>
+        <v>2.382313</v>
       </c>
       <c r="N16">
-        <v>2.13239902307729</v>
+        <v>7.146939</v>
       </c>
       <c r="O16">
-        <v>0.02625648499330667</v>
+        <v>0.0289137114881257</v>
       </c>
       <c r="P16">
-        <v>0.02625648499330667</v>
+        <v>0.02891371148812569</v>
       </c>
       <c r="Q16">
-        <v>1.78229733019092</v>
+        <v>1.994379533393</v>
       </c>
       <c r="R16">
-        <v>1.78229733019092</v>
+        <v>17.949415800537</v>
       </c>
       <c r="S16">
-        <v>5.58019681017769E-06</v>
+        <v>6.11141123861595E-06</v>
       </c>
       <c r="T16">
-        <v>5.58019681017769E-06</v>
+        <v>6.111411238615948E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>59.689768741765</v>
+        <v>1.334605</v>
       </c>
       <c r="H17">
-        <v>59.689768741765</v>
+        <v>4.003814999999999</v>
       </c>
       <c r="I17">
-        <v>0.01517753158585629</v>
+        <v>0.0003369623860921186</v>
       </c>
       <c r="J17">
-        <v>0.01517753158585629</v>
+        <v>0.0003369623860921186</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.820189278529231</v>
+        <v>9.115710333333334</v>
       </c>
       <c r="N17">
-        <v>8.820189278529231</v>
+        <v>27.347131</v>
       </c>
       <c r="O17">
-        <v>0.1086040487373799</v>
+        <v>0.1106357638930427</v>
       </c>
       <c r="P17">
-        <v>0.1086040487373799</v>
+        <v>0.1106357638930427</v>
       </c>
       <c r="Q17">
-        <v>526.4750582940048</v>
+        <v>12.16587258941833</v>
       </c>
       <c r="R17">
-        <v>526.4750582940048</v>
+        <v>109.492853304765</v>
       </c>
       <c r="S17">
-        <v>0.001648341380063459</v>
+        <v>3.728009098852392E-05</v>
       </c>
       <c r="T17">
-        <v>0.001648341380063459</v>
+        <v>3.728009098852391E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>59.689768741765</v>
+        <v>1.334605</v>
       </c>
       <c r="H18">
-        <v>59.689768741765</v>
+        <v>4.003814999999999</v>
       </c>
       <c r="I18">
-        <v>0.01517753158585629</v>
+        <v>0.0003369623860921186</v>
       </c>
       <c r="J18">
-        <v>0.01517753158585629</v>
+        <v>0.0003369623860921186</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.957474287986891</v>
+        <v>9.004096000000001</v>
       </c>
       <c r="N18">
-        <v>8.957474287986891</v>
+        <v>27.012288</v>
       </c>
       <c r="O18">
-        <v>0.1102944555288016</v>
+        <v>0.1092811204721574</v>
       </c>
       <c r="P18">
-        <v>0.1102944555288016</v>
+        <v>0.1092811204721574</v>
       </c>
       <c r="Q18">
-        <v>534.6695687602436</v>
+        <v>12.01691154208</v>
       </c>
       <c r="R18">
-        <v>534.6695687602436</v>
+        <v>108.15220387872</v>
       </c>
       <c r="S18">
-        <v>0.001673997582533209</v>
+        <v>3.682362710911842E-05</v>
       </c>
       <c r="T18">
-        <v>0.001673997582533209</v>
+        <v>3.682362710911841E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>59.689768741765</v>
+        <v>1.334605</v>
       </c>
       <c r="H19">
-        <v>59.689768741765</v>
+        <v>4.003814999999999</v>
       </c>
       <c r="I19">
-        <v>0.01517753158585629</v>
+        <v>0.0003369623860921186</v>
       </c>
       <c r="J19">
-        <v>0.01517753158585629</v>
+        <v>0.0003369623860921186</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>31.5721116910725</v>
+        <v>31.76332533333333</v>
       </c>
       <c r="N19">
-        <v>31.5721116910725</v>
+        <v>95.289976</v>
       </c>
       <c r="O19">
-        <v>0.3887511989324339</v>
+        <v>0.3855058611490069</v>
       </c>
       <c r="P19">
-        <v>0.3887511989324339</v>
+        <v>0.3855058611490069</v>
       </c>
       <c r="Q19">
-        <v>1884.532045529293</v>
+        <v>42.39149280649332</v>
       </c>
       <c r="R19">
-        <v>1884.532045529293</v>
+        <v>381.5234352584399</v>
       </c>
       <c r="S19">
-        <v>0.00590028360083652</v>
+        <v>0.0001299009748252663</v>
       </c>
       <c r="T19">
-        <v>0.00590028360083652</v>
+        <v>0.0001299009748252663</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>59.689768741765</v>
+        <v>1.334605</v>
       </c>
       <c r="H20">
-        <v>59.689768741765</v>
+        <v>4.003814999999999</v>
       </c>
       <c r="I20">
-        <v>0.01517753158585629</v>
+        <v>0.0003369623860921186</v>
       </c>
       <c r="J20">
-        <v>0.01517753158585629</v>
+        <v>0.0003369623860921186</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>29.73201046725</v>
+        <v>30.12843966666667</v>
       </c>
       <c r="N20">
-        <v>29.73201046725</v>
+        <v>90.385319</v>
       </c>
       <c r="O20">
-        <v>0.3660938118080779</v>
+        <v>0.3656635429976674</v>
       </c>
       <c r="P20">
-        <v>0.3660938118080779</v>
+        <v>0.3656635429976673</v>
       </c>
       <c r="Q20">
-        <v>1774.696829017889</v>
+        <v>40.20956622133166</v>
       </c>
       <c r="R20">
-        <v>1774.696829017889</v>
+        <v>361.8860959919849</v>
       </c>
       <c r="S20">
-        <v>0.005556400392103632</v>
+        <v>0.000123214859955392</v>
       </c>
       <c r="T20">
-        <v>0.005556400392103632</v>
+        <v>0.000123214859955392</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.334605</v>
+      </c>
+      <c r="H21">
+        <v>4.003814999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.0003369623860921186</v>
+      </c>
+      <c r="J21">
+        <v>0.0003369623860921186</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.382313</v>
+      </c>
+      <c r="N21">
+        <v>7.146939</v>
+      </c>
+      <c r="O21">
+        <v>0.0289137114881257</v>
+      </c>
+      <c r="P21">
+        <v>0.02891371148812569</v>
+      </c>
+      <c r="Q21">
+        <v>3.179446841364999</v>
+      </c>
+      <c r="R21">
+        <v>28.61502157228499</v>
+      </c>
+      <c r="S21">
+        <v>9.742833213817938E-06</v>
+      </c>
+      <c r="T21">
+        <v>9.742833213817934E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>61.74316766666667</v>
+      </c>
+      <c r="H22">
+        <v>185.229503</v>
+      </c>
+      <c r="I22">
+        <v>0.01558897584067627</v>
+      </c>
+      <c r="J22">
+        <v>0.01558897584067627</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>9.115710333333334</v>
+      </c>
+      <c r="N22">
+        <v>27.347131</v>
+      </c>
+      <c r="O22">
+        <v>0.1106357638930427</v>
+      </c>
+      <c r="P22">
+        <v>0.1106357638930427</v>
+      </c>
+      <c r="Q22">
+        <v>562.832831511766</v>
+      </c>
+      <c r="R22">
+        <v>5065.495483605894</v>
+      </c>
+      <c r="S22">
+        <v>0.001724698250443406</v>
+      </c>
+      <c r="T22">
+        <v>0.001724698250443406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>61.74316766666667</v>
+      </c>
+      <c r="H23">
+        <v>185.229503</v>
+      </c>
+      <c r="I23">
+        <v>0.01558897584067627</v>
+      </c>
+      <c r="J23">
+        <v>0.01558897584067627</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>9.004096000000001</v>
+      </c>
+      <c r="N23">
+        <v>27.012288</v>
+      </c>
+      <c r="O23">
+        <v>0.1092811204721574</v>
+      </c>
+      <c r="P23">
+        <v>0.1092811204721574</v>
+      </c>
+      <c r="Q23">
+        <v>555.9414090147627</v>
+      </c>
+      <c r="R23">
+        <v>5003.472681132865</v>
+      </c>
+      <c r="S23">
+        <v>0.001703580746882494</v>
+      </c>
+      <c r="T23">
+        <v>0.001703580746882494</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>61.74316766666667</v>
+      </c>
+      <c r="H24">
+        <v>185.229503</v>
+      </c>
+      <c r="I24">
+        <v>0.01558897584067627</v>
+      </c>
+      <c r="J24">
+        <v>0.01558897584067627</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>31.76332533333333</v>
+      </c>
+      <c r="N24">
+        <v>95.289976</v>
+      </c>
+      <c r="O24">
+        <v>0.3855058611490069</v>
+      </c>
+      <c r="P24">
+        <v>0.3855058611490069</v>
+      </c>
+      <c r="Q24">
+        <v>1961.168321706881</v>
+      </c>
+      <c r="R24">
+        <v>17650.51489536193</v>
+      </c>
+      <c r="S24">
+        <v>0.006009641555890968</v>
+      </c>
+      <c r="T24">
+        <v>0.006009641555890968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>59.689768741765</v>
-      </c>
-      <c r="H21">
-        <v>59.689768741765</v>
-      </c>
-      <c r="I21">
-        <v>0.01517753158585629</v>
-      </c>
-      <c r="J21">
-        <v>0.01517753158585629</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>2.13239902307729</v>
-      </c>
-      <c r="N21">
-        <v>2.13239902307729</v>
-      </c>
-      <c r="O21">
-        <v>0.02625648499330667</v>
-      </c>
-      <c r="P21">
-        <v>0.02625648499330667</v>
-      </c>
-      <c r="Q21">
-        <v>127.282404552649</v>
-      </c>
-      <c r="R21">
-        <v>127.282404552649</v>
-      </c>
-      <c r="S21">
-        <v>0.0003985086303194738</v>
-      </c>
-      <c r="T21">
-        <v>0.0003985086303194738</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>61.74316766666667</v>
+      </c>
+      <c r="H25">
+        <v>185.229503</v>
+      </c>
+      <c r="I25">
+        <v>0.01558897584067627</v>
+      </c>
+      <c r="J25">
+        <v>0.01558897584067627</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>30.12843966666667</v>
+      </c>
+      <c r="N25">
+        <v>90.385319</v>
+      </c>
+      <c r="O25">
+        <v>0.3656635429976674</v>
+      </c>
+      <c r="P25">
+        <v>0.3656635429976673</v>
+      </c>
+      <c r="Q25">
+        <v>1860.225301874051</v>
+      </c>
+      <c r="R25">
+        <v>16742.02771686646</v>
+      </c>
+      <c r="S25">
+        <v>0.005700320137606726</v>
+      </c>
+      <c r="T25">
+        <v>0.005700320137606724</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>61.74316766666667</v>
+      </c>
+      <c r="H26">
+        <v>185.229503</v>
+      </c>
+      <c r="I26">
+        <v>0.01558897584067627</v>
+      </c>
+      <c r="J26">
+        <v>0.01558897584067627</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.382313</v>
+      </c>
+      <c r="N26">
+        <v>7.146939</v>
+      </c>
+      <c r="O26">
+        <v>0.0289137114881257</v>
+      </c>
+      <c r="P26">
+        <v>0.02891371148812569</v>
+      </c>
+      <c r="Q26">
+        <v>147.0915509934797</v>
+      </c>
+      <c r="R26">
+        <v>1323.823958941317</v>
+      </c>
+      <c r="S26">
+        <v>0.0004507351498526754</v>
+      </c>
+      <c r="T26">
+        <v>0.0004507351498526753</v>
       </c>
     </row>
   </sheetData>
